--- a/Data/Pengambilan data.xlsx
+++ b/Data/Pengambilan data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tutorial Github\Tutorial_github\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E1909-034B-425E-BF71-CD1CA0D623B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>cek</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Pengambilan data.xlsx
+++ b/Data/Pengambilan data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tutorial Github\Tutorial_github\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E1909-034B-425E-BF71-CD1CA0D623B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5DB26-6A1A-4A5F-B58D-DE23404B0DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>cek</t>
   </si>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,6 +358,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Pengambilan data.xlsx
+++ b/Data/Pengambilan data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tutorial Github\Tutorial_github\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro2015/Desktop/Tutorial_github/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5DB26-6A1A-4A5F-B58D-DE23404B0DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5677BFAA-6B8D-9A46-8C8C-9EC76466169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>cek</t>
+  </si>
+  <si>
+    <t>cek1234</t>
   </si>
 </sst>
 </file>
@@ -345,22 +348,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pengambilan data.xlsx
+++ b/Data/Pengambilan data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro2015/Desktop/Tutorial_github/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5677BFAA-6B8D-9A46-8C8C-9EC76466169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD404F98-AFE1-DE43-9B43-F04449DAA5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +62,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,28 +364,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
